--- a/biology/Botanique/Leptadenia_lancifolia/Leptadenia_lancifolia.xlsx
+++ b/biology/Botanique/Leptadenia_lancifolia/Leptadenia_lancifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leptadenia lancifolia (Schumach. &amp; Thonn.) Decne. est une espèce de plantes à fleurs d'Afrique, de la famille des Apocynaceae et du genre Leptadenia.
 </t>
@@ -511,13 +523,15 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante est très utilisée en médecine traditionnelle en Afrique de l'Ouest et du Centre[2].
-Au Nord du Cameroun, les feuilles, les fleurs et les jeunes fruits sont ingérés pour calmer la toux[3].
-Les feuilles sont aussi incorporées dans les sauces, ou mangées crues[3].
-Un breuvage à base de racine pilée est utilisé comme remède contre la blennorragie[3].
-Les applications de latex soulagent les maux de tête[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante est très utilisée en médecine traditionnelle en Afrique de l'Ouest et du Centre.
+Au Nord du Cameroun, les feuilles, les fleurs et les jeunes fruits sont ingérés pour calmer la toux.
+Les feuilles sont aussi incorporées dans les sauces, ou mangées crues.
+Un breuvage à base de racine pilée est utilisé comme remède contre la blennorragie.
+Les applications de latex soulagent les maux de tête.
 Les feuilles sont consommées aussi par le bétail.
 </t>
         </is>
